--- a/Assets/RawData/Excel/PlayerBaseStatus.xlsx
+++ b/Assets/RawData/Excel/PlayerBaseStatus.xlsx
@@ -178,8 +178,8 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
